--- a/biology/Botanique/Ceratostigma_plumbaginoides/Ceratostigma_plumbaginoides.xlsx
+++ b/biology/Botanique/Ceratostigma_plumbaginoides/Ceratostigma_plumbaginoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratostigma plumbaginoides (la dentelaire de Chine) est une espèce de plantes de la famille des Plumbaginacées.
 Elle est originaire de Chine où son nom chinois est : 蓝雪花.
-Les autres noms vernaculaires sous lesquels elle est connue incluent: dentelaire de Lady Larpent, dentelaire bleue, dentelaire rampante, plumbago de Chine et plumbago rampant[1].
+Les autres noms vernaculaires sous lesquels elle est connue incluent: dentelaire de Lady Larpent, dentelaire bleue, dentelaire rampante, plumbago de Chine et plumbago rampant.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1833, Alexander Andrejewitsch von Bunge la décrit et la place comme espèce type dans le genre qu'il crée à cette occasion[2].
-En 1842, Christian Ferdinand Friedrich Hochstetter redécrit le genre sous le nom de Valoradia, avec deux espèces africaines[3]. En 1848, Pierre Edmond Boissier y place cette espèce en 1888 : Valoradia plumbaginoides (Bunge) Boiss.[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1833, Alexander Andrejewitsch von Bunge la décrit et la place comme espèce type dans le genre qu'il crée à cette occasion.
+En 1842, Christian Ferdinand Friedrich Hochstetter redécrit le genre sous le nom de Valoradia, avec deux espèces africaines. En 1848, Pierre Edmond Boissier y place cette espèce en 1888 : Valoradia plumbaginoides (Bunge) Boiss..
 Elle compte deux synonymes :
 Plumbago larpentae Lindl.
 Valoradia plumbaginoides (Bunge) Boiss.</t>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes herbacées vivaces, de vingt à trente centimètres de haut.
 Cette espèce est rhizomateuse, tapissante.
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine : Beijing, Henan, Jiangsu, Shanxi, Zhejiang.
 Elle se développe dans les endroits rocailleux, plutôt secs et ensoleillés.
